--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value499.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value499.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.225094014927826</v>
+        <v>1.291273832321167</v>
       </c>
       <c r="B1">
-        <v>2.956727113194088</v>
+        <v>2.924385070800781</v>
       </c>
       <c r="C1">
-        <v>3.537678937498372</v>
+        <v>5.261811256408691</v>
       </c>
       <c r="D1">
-        <v>1.28453429463083</v>
+        <v>1.85080349445343</v>
       </c>
       <c r="E1">
-        <v>0.8664098122642594</v>
+        <v>1.01287305355072</v>
       </c>
     </row>
   </sheetData>
